--- a/rabbit/Rabbit6000_Delta4000Instructions.xlsx
+++ b/rabbit/Rabbit6000_Delta4000Instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom/techdocs/rabbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477EEE64-198F-3645-808D-66990DE87010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CBBDA0-AD8F-684B-92D9-68ED83FC17F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7760" yWindow="1240" windowWidth="40000" windowHeight="26500" activeTab="4" xr2:uid="{1BCC7067-9937-584B-AF70-3881CCB50CA1}"/>
+    <workbookView xWindow="13740" yWindow="1240" windowWidth="40000" windowHeight="26500" activeTab="4" xr2:uid="{1BCC7067-9937-584B-AF70-3881CCB50CA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Rabbit 6000 main page" sheetId="11" r:id="rId1"/>
@@ -714,9 +714,6 @@
     <t>aesimc</t>
   </si>
   <si>
-    <t>psldr</t>
-  </si>
-  <si>
     <t>plsddr</t>
   </si>
   <si>
@@ -3937,6 +3934,9 @@
   </si>
   <si>
     <t>aesisr</t>
+  </si>
+  <si>
+    <t>plsdr</t>
   </si>
 </sst>
 </file>
@@ -4515,52 +4515,52 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>556</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>557</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>559</v>
-      </c>
       <c r="H3" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>573</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>574</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>36</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>52</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="6" t="s">
         <v>578</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>579</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -4591,31 +4591,31 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>581</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>582</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>586</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>587</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>37</v>
@@ -4627,16 +4627,16 @@
         <v>53</v>
       </c>
       <c r="N5" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="6" t="s">
         <v>590</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>591</v>
       </c>
       <c r="R5" s="1">
         <v>1</v>
@@ -4667,10 +4667,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>560</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>561</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>58</v>
@@ -4679,19 +4679,19 @@
         <v>50</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>565</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>566</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>38</v>
@@ -4703,16 +4703,16 @@
         <v>54</v>
       </c>
       <c r="N7" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="6" t="s">
         <v>570</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>571</v>
       </c>
       <c r="R7" s="1">
         <v>2</v>
@@ -4743,13 +4743,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>593</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>594</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>51</v>
@@ -4764,31 +4764,31 @@
         <v>24</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>595</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>596</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>39</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N9" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="Q9" s="6" t="s">
         <v>599</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>600</v>
       </c>
       <c r="R9" s="1">
         <v>3</v>
@@ -4819,44 +4819,44 @@
         <v>4</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="16" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>604</v>
-      </c>
       <c r="K11" s="16" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="O11" s="4" t="s">
         <v>605</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>606</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="R11" s="1">
         <v>4</v>
@@ -4891,32 +4891,32 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>608</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>609</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>610</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>611</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="16" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -4924,7 +4924,7 @@
         <v>14</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="R13" s="1">
         <v>5</v>
@@ -4957,44 +4957,44 @@
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="16" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>618</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>1147</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>619</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="16" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="R15" s="1">
         <v>6</v>
@@ -5047,34 +5047,34 @@
         <v>23</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="J17" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="L17" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>626</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>627</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="R17" s="1">
         <v>7</v>
@@ -5106,47 +5106,47 @@
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>632</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>633</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>70</v>
       </c>
       <c r="M19" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="N19" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="O19" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="P19" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="Q19" s="6" t="s">
         <v>638</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>639</v>
       </c>
       <c r="R19" s="1">
         <v>8</v>
@@ -5178,49 +5178,49 @@
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>81</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="K21" s="4" t="s">
         <v>646</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>647</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>71</v>
       </c>
       <c r="M21" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="N21" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="O21" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="P21" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="Q21" s="6" t="s">
         <v>651</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>652</v>
       </c>
       <c r="R21" s="1">
         <v>9</v>
@@ -5251,52 +5251,52 @@
         <v>6</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="L23" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="N23" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="O23" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="P23" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q23" s="6" t="s">
         <v>666</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>667</v>
       </c>
       <c r="R23" s="1" t="s">
         <v>6</v>
@@ -5327,52 +5327,52 @@
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="L25" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="M25" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="N25" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="O25" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="O25" s="4" t="s">
+      <c r="P25" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="P25" s="4" t="s">
+      <c r="Q25" s="6" t="s">
         <v>682</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>683</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>1</v>
@@ -5403,52 +5403,52 @@
         <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="I27" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="J27" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="K27" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="L27" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="M27" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="N27" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="O27" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="P27" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q27" s="6" t="s">
         <v>698</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>699</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>2</v>
@@ -5479,52 +5479,52 @@
         <v>3</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>703</v>
-      </c>
       <c r="F29" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="I29" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="J29" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="K29" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="L29" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="M29" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="N29" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="O29" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="O29" s="4" t="s">
+      <c r="P29" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="Q29" s="6" t="s">
         <v>715</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>716</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>3</v>
@@ -5555,52 +5555,52 @@
         <v>4</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>718</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>719</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>720</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="J31" s="4" t="s">
         <v>723</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>724</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>35</v>
       </c>
       <c r="L31" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="M31" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="N31" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="O31" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="P31" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="Q31" s="6" t="s">
         <v>729</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>730</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>4</v>
@@ -5631,52 +5631,52 @@
         <v>5</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>733</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>734</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G33" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="J33" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="K33" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="L33" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="M33" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="N33" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="O33" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="P33" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="O33" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="P33" s="4" t="s">
+      <c r="Q33" s="6" t="s">
         <v>743</v>
-      </c>
-      <c r="Q33" s="6" t="s">
-        <v>744</v>
       </c>
       <c r="R33" s="1" t="s">
         <v>5</v>
@@ -5872,30 +5872,30 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>748</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="O3" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="6" t="s">
         <v>752</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>753</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -5935,25 +5935,25 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L5" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>771</v>
-      </c>
       <c r="N5" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="6" t="s">
         <v>756</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>757</v>
       </c>
       <c r="R5" s="1">
         <v>1</v>
@@ -5985,13 +5985,13 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>774</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>775</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -5999,25 +5999,25 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="N7" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="6" t="s">
         <v>760</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>761</v>
       </c>
       <c r="R7" s="1">
         <v>2</v>
@@ -6050,36 +6050,36 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="16" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>777</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>778</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="Q9" s="6" t="s">
         <v>764</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>765</v>
       </c>
       <c r="R9" s="1">
         <v>3</v>
@@ -6118,30 +6118,30 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="R11" s="1">
         <v>4</v>
@@ -6178,26 +6178,26 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>809</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>810</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="R13" s="1">
         <v>5</v>
@@ -6234,28 +6234,28 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="R15" s="1">
         <v>6</v>
@@ -6286,48 +6286,48 @@
         <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>786</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>791</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>788</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>789</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>790</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="P17" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="Q17" s="6" t="s">
         <v>796</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>797</v>
       </c>
       <c r="R17" s="1">
         <v>7</v>
@@ -6358,44 +6358,44 @@
         <v>8</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="R19" s="1">
         <v>8</v>
@@ -6434,44 +6434,44 @@
         <v>9</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="R21" s="1">
         <v>9</v>
@@ -6510,44 +6510,44 @@
         <v>6</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="R23" s="1" t="s">
         <v>6</v>
@@ -6586,44 +6586,44 @@
         <v>1</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>817</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>1</v>
@@ -6666,10 +6666,10 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -6677,19 +6677,19 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>2</v>
@@ -6726,7 +6726,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -6736,16 +6736,16 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>3</v>
@@ -6777,39 +6777,39 @@
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="L31" s="4" t="s">
         <v>849</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>850</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>4</v>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -6849,27 +6849,27 @@
         <v>7</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="R33" s="1" t="s">
         <v>5</v>
@@ -7065,30 +7065,30 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>872</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>874</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="6" t="s">
         <v>875</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>876</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -7128,25 +7128,25 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="L5" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>879</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>880</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="6" t="s">
         <v>881</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>882</v>
       </c>
       <c r="R5" s="1">
         <v>1</v>
@@ -7178,13 +7178,13 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>940</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>941</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>942</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -7192,25 +7192,25 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>943</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>944</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>945</v>
-      </c>
       <c r="N7" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="6" t="s">
         <v>885</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>886</v>
       </c>
       <c r="R7" s="1">
         <v>2</v>
@@ -7243,36 +7243,36 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="16" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>946</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>947</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>948</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>888</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="Q9" s="6" t="s">
         <v>889</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>890</v>
       </c>
       <c r="R9" s="1">
         <v>3</v>
@@ -7311,30 +7311,30 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>891</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>892</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="O11" s="4" t="s">
         <v>893</v>
       </c>
-      <c r="N11" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="O11" s="4" t="s">
+      <c r="P11" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="Q11" s="6" t="s">
         <v>894</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>895</v>
       </c>
       <c r="R11" s="1">
         <v>4</v>
@@ -7371,26 +7371,26 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>896</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>897</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="R13" s="1">
         <v>5</v>
@@ -7427,28 +7427,28 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>900</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>901</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>955</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="P15" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="P15" s="4" t="s">
-        <v>957</v>
-      </c>
       <c r="Q15" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="R15" s="1">
         <v>6</v>
@@ -7479,48 +7479,48 @@
         <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>961</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>962</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>963</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J17" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>903</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>904</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="Q17" s="6" t="s">
         <v>905</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>964</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>965</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>966</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>906</v>
       </c>
       <c r="R17" s="1">
         <v>7</v>
@@ -7551,44 +7551,44 @@
         <v>8</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>907</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>908</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="O19" s="4" t="s">
         <v>909</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="P19" s="4" t="s">
         <v>968</v>
       </c>
-      <c r="O19" s="4" t="s">
-        <v>910</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>969</v>
-      </c>
       <c r="Q19" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="R19" s="1">
         <v>8</v>
@@ -7627,44 +7627,44 @@
         <v>9</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>911</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>912</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="O21" s="4" t="s">
         <v>913</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="P21" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="O21" s="4" t="s">
-        <v>914</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>972</v>
-      </c>
       <c r="Q21" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="R21" s="1">
         <v>9</v>
@@ -7703,44 +7703,44 @@
         <v>6</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>915</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>916</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="O23" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="P23" s="4" t="s">
         <v>974</v>
       </c>
-      <c r="O23" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>975</v>
-      </c>
       <c r="Q23" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="R23" s="1" t="s">
         <v>6</v>
@@ -7779,44 +7779,44 @@
         <v>1</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D25" s="16" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>1270</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>1271</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>919</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>920</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="O25" s="4" t="s">
         <v>921</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="P25" s="4" t="s">
         <v>977</v>
       </c>
-      <c r="O25" s="4" t="s">
-        <v>922</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>978</v>
-      </c>
       <c r="Q25" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>1</v>
@@ -7859,10 +7859,10 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -7870,19 +7870,19 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="P27" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="Q27" s="6" t="s">
         <v>927</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>928</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>2</v>
@@ -7919,7 +7919,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -7929,16 +7929,16 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="P29" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="Q29" s="6" t="s">
         <v>924</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>925</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>3</v>
@@ -7970,39 +7970,39 @@
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="L31" s="4" t="s">
         <v>986</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>987</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="O31" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="P31" s="4" t="s">
         <v>929</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="Q31" s="6" t="s">
         <v>930</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>931</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>4</v>
@@ -8034,7 +8034,7 @@
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -8042,27 +8042,27 @@
         <v>8</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="O33" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="P33" s="4" t="s">
         <v>934</v>
       </c>
-      <c r="P33" s="4" t="s">
+      <c r="Q33" s="6" t="s">
         <v>935</v>
-      </c>
-      <c r="Q33" s="6" t="s">
-        <v>936</v>
       </c>
       <c r="R33" s="1" t="s">
         <v>5</v>
@@ -8252,34 +8252,34 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>75</v>
@@ -8288,16 +8288,16 @@
         <v>73</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -8328,34 +8328,34 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>79</v>
@@ -8364,16 +8364,16 @@
         <v>77</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="R5" s="1">
         <v>1</v>
@@ -8405,29 +8405,29 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>74</v>
@@ -8436,16 +8436,16 @@
         <v>72</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="R7" s="1">
         <v>2</v>
@@ -8477,29 +8477,29 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>78</v>
@@ -8508,16 +8508,16 @@
         <v>76</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="R9" s="1">
         <v>3</v>
@@ -8548,10 +8548,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>40</v>
@@ -8563,19 +8563,19 @@
         <v>65</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>44</v>
@@ -8584,16 +8584,16 @@
         <v>60</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="R11" s="1">
         <v>4</v>
@@ -8624,10 +8624,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>41</v>
@@ -8636,22 +8636,22 @@
         <v>57</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>45</v>
@@ -8660,16 +8660,16 @@
         <v>61</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="R13" s="1">
         <v>5</v>
@@ -8703,7 +8703,7 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>42</v>
@@ -8712,20 +8712,20 @@
         <v>58</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>46</v>
@@ -8734,16 +8734,16 @@
         <v>62</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="R15" s="1">
         <v>6</v>
@@ -8781,16 +8781,16 @@
         <v>59</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -8801,16 +8801,16 @@
         <v>63</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="R17" s="1">
         <v>7</v>
@@ -8841,28 +8841,28 @@
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="16" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -8901,7 +8901,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -8909,13 +8909,13 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="16" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -8961,35 +8961,35 @@
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>1113</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>1114</v>
-      </c>
       <c r="G23" s="4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>68</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
@@ -9030,38 +9030,38 @@
         <v>67</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>69</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
@@ -9099,48 +9099,48 @@
         <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="6" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="O27" s="4"/>
       <c r="P27" s="16" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="Q27" s="18" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>2</v>
@@ -9177,50 +9177,50 @@
         <v>3</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O29" s="4"/>
       <c r="P29" s="16" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="Q29" s="18" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>3</v>
@@ -9258,33 +9258,33 @@
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Q31" s="18" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>4</v>
@@ -9319,38 +9319,38 @@
         <v>5</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="Q33" s="18" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="R33" s="1" t="s">
         <v>5</v>
@@ -9462,7 +9462,7 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10417,25 +10417,25 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P19" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q19" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R19" s="1">
         <v>8</v>
@@ -10493,25 +10493,25 @@
         <v>215</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N21" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P21" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q21" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R21" s="1">
         <v>9</v>
@@ -10563,43 +10563,43 @@
         <v>220</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F23" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="H23" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="I23" s="16" t="s">
         <v>233</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>234</v>
       </c>
       <c r="J23" s="16" t="s">
         <v>213</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R23" s="1" t="s">
         <v>6</v>
@@ -10662,40 +10662,40 @@
         <v>222</v>
       </c>
       <c r="F25" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="G25" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="H25" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="I25" s="16" t="s">
         <v>237</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>238</v>
       </c>
       <c r="J25" s="16" t="s">
         <v>214</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N25" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P25" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q25" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>1</v>
@@ -10752,10 +10752,10 @@
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -10765,25 +10765,25 @@
         <v>219</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L27" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M27" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P27" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q27" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>2</v>
@@ -10832,38 +10832,38 @@
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P29" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q29" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>3</v>
@@ -10910,10 +10910,10 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -10921,25 +10921,25 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M31" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N31" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O31" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P31" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q31" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>4</v>
@@ -10994,28 +10994,28 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="16" t="s">
-        <v>223</v>
+        <v>1297</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M33" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N33" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P33" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q33" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R33" s="1" t="s">
         <v>5</v>
@@ -11395,48 +11395,48 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>1149</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>1150</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>1151</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>1152</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>1153</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>1154</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J11" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>1155</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>1156</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>1157</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>1158</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>1159</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>1160</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="R11" s="1">
         <v>4</v>
@@ -11467,48 +11467,48 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>1161</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>1162</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>1163</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>1164</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>1165</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>1166</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>1167</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>1168</v>
-      </c>
-      <c r="L13" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>1169</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="N13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>1170</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>1171</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="R13" s="1">
         <v>5</v>
@@ -11539,48 +11539,48 @@
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>1172</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>1173</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>1174</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>1176</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>1177</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J15" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>1178</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>1179</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>1180</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>1181</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>1182</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>1183</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="R15" s="1">
         <v>6</v>
@@ -11619,26 +11619,26 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="L17" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>626</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>627</v>
       </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="R17" s="1">
         <v>7</v>
@@ -11669,52 +11669,52 @@
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>1185</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>1186</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>1187</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>1188</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>1189</v>
-      </c>
       <c r="G19" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I19" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>1190</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>1191</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="L19" s="4" t="s">
         <v>1192</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="M19" s="4" t="s">
         <v>1193</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="N19" s="4" t="s">
         <v>1194</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="O19" s="4" t="s">
         <v>1195</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>1196</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>27</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="R19" s="1">
         <v>8</v>
@@ -11745,52 +11745,52 @@
         <v>9</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>1198</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>1199</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>1200</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>1201</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>1202</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>1203</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I21" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>1204</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="K21" s="4" t="s">
         <v>1205</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="L21" s="4" t="s">
         <v>1206</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="M21" s="4" t="s">
         <v>1207</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="N21" s="4" t="s">
         <v>1208</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="O21" s="4" t="s">
         <v>1209</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="P21" s="4" t="s">
         <v>1210</v>
       </c>
-      <c r="P21" s="4" t="s">
-        <v>1211</v>
-      </c>
       <c r="Q21" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="R21" s="1">
         <v>9</v>
@@ -11821,52 +11821,52 @@
         <v>6</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>1212</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>1213</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>1214</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>1215</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>1216</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>1217</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I23" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>1219</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="L23" s="4" t="s">
         <v>1220</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>1221</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="N23" s="4" t="s">
         <v>1222</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="O23" s="4" t="s">
         <v>1223</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>1224</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>34</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="R23" s="1" t="s">
         <v>6</v>
@@ -11897,52 +11897,52 @@
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>1225</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>1226</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>1227</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>1228</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>1229</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>1230</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>33</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J25" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>1231</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="L25" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="M25" s="4" t="s">
         <v>1233</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="N25" s="4" t="s">
         <v>1234</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="O25" s="4" t="s">
         <v>1235</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>1236</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>1</v>
@@ -12325,52 +12325,52 @@
         <v>0</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="M5" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="N5" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="O5" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="P5" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="O5" s="14" t="s">
-        <v>551</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>326</v>
-      </c>
       <c r="Q5" s="14" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -12405,52 +12405,52 @@
         <v>1</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="L7" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="M7" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="N7" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="O7" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="P7" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="O7" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>340</v>
-      </c>
       <c r="Q7" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="R7" s="1">
         <v>1</v>
@@ -12485,47 +12485,47 @@
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="M9" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="N9" s="11" t="s">
         <v>352</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>353</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q9" s="11"/>
       <c r="R9" s="1">
@@ -12557,47 +12557,47 @@
         <v>3</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="G11" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="H11" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="I11" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="J11" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="K11" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="L11" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="M11" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="N11" s="11" t="s">
         <v>366</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>367</v>
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q11" s="11"/>
       <c r="R11" s="1">
@@ -12629,52 +12629,52 @@
         <v>4</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="I13" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="J13" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="L13" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="M13" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="N13" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="O13" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="P13" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="O13" s="14" t="s">
-        <v>552</v>
-      </c>
-      <c r="P13" s="11" t="s">
-        <v>382</v>
-      </c>
       <c r="Q13" s="14" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="R13" s="1">
         <v>4</v>
@@ -12709,52 +12709,52 @@
         <v>5</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="E15" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="G15" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="I15" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="J15" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="K15" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="L15" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="M15" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="N15" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="O15" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="P15" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="O15" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>396</v>
-      </c>
       <c r="Q15" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="R15" s="1">
         <v>5</v>
@@ -12789,49 +12789,49 @@
         <v>6</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="E17" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="F17" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="G17" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="H17" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="I17" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="J17" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="K17" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="L17" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="M17" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="N17" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="O17" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="O17" s="11" t="s">
+      <c r="P17" s="11" t="s">
         <v>410</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>411</v>
       </c>
       <c r="Q17" s="11"/>
       <c r="R17" s="1">
@@ -12863,50 +12863,50 @@
         <v>7</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="D19" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="F19" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="G19" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="I19" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="J19" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="K19" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="L19" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="M19" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="M19" s="11" t="s">
+      <c r="N19" s="11" t="s">
         <v>423</v>
-      </c>
-      <c r="N19" s="11" t="s">
-        <v>424</v>
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q19" s="11" t="s">
         <v>425</v>
-      </c>
-      <c r="Q19" s="11" t="s">
-        <v>426</v>
       </c>
       <c r="R19" s="1">
         <v>7</v>
@@ -12937,52 +12937,52 @@
         <v>8</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="D21" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="E21" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="F21" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="G21" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="H21" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="I21" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="J21" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="K21" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="L21" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="M21" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="N21" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="O21" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="P21" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="O21" s="14" t="s">
-        <v>553</v>
-      </c>
-      <c r="P21" s="11" t="s">
-        <v>440</v>
-      </c>
       <c r="Q21" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="R21" s="1">
         <v>8</v>
@@ -13017,52 +13017,52 @@
         <v>9</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="D23" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="E23" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="F23" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="G23" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="I23" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="J23" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="K23" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="L23" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="M23" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="M23" s="11" t="s">
+      <c r="N23" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="N23" s="11" t="s">
+      <c r="O23" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="P23" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="O23" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="P23" s="11" t="s">
-        <v>454</v>
-      </c>
       <c r="Q23" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="R23" s="1">
         <v>9</v>
@@ -13097,47 +13097,47 @@
         <v>6</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="D25" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="E25" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="F25" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="G25" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="H25" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="I25" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="J25" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="K25" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="L25" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="M25" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="M25" s="11" t="s">
+      <c r="N25" s="11" t="s">
         <v>466</v>
-      </c>
-      <c r="N25" s="11" t="s">
-        <v>467</v>
       </c>
       <c r="O25" s="11"/>
       <c r="P25" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Q25" s="11"/>
       <c r="R25" s="1" t="s">
@@ -13169,47 +13169,47 @@
         <v>1</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="D27" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="E27" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="F27" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="G27" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="H27" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="I27" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="J27" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="K27" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="L27" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="L27" s="11" t="s">
+      <c r="M27" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="M27" s="11" t="s">
+      <c r="N27" s="11" t="s">
         <v>480</v>
-      </c>
-      <c r="N27" s="11" t="s">
-        <v>481</v>
       </c>
       <c r="O27" s="11"/>
       <c r="P27" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q27" s="11"/>
       <c r="R27" s="1" t="s">
@@ -13241,52 +13241,52 @@
         <v>2</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="D29" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="E29" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="F29" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="G29" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="H29" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="I29" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="J29" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="K29" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="L29" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="L29" s="11" t="s">
+      <c r="M29" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="M29" s="11" t="s">
+      <c r="N29" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="N29" s="11" t="s">
+      <c r="O29" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="P29" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="O29" s="14" t="s">
-        <v>554</v>
-      </c>
-      <c r="P29" s="11" t="s">
-        <v>496</v>
-      </c>
       <c r="Q29" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>2</v>
@@ -13321,52 +13321,52 @@
         <v>3</v>
       </c>
       <c r="B31" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="D31" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="E31" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="F31" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="G31" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="H31" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="I31" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="J31" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="K31" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="L31" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="L31" s="11" t="s">
+      <c r="M31" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="M31" s="11" t="s">
+      <c r="N31" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="N31" s="11" t="s">
+      <c r="O31" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="P31" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="O31" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="P31" s="11" t="s">
-        <v>510</v>
-      </c>
       <c r="Q31" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>3</v>
@@ -13401,47 +13401,47 @@
         <v>4</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="D33" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="E33" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="F33" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="G33" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="H33" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="I33" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="J33" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="K33" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="L33" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="L33" s="11" t="s">
+      <c r="M33" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="M33" s="11" t="s">
+      <c r="N33" s="11" t="s">
         <v>522</v>
-      </c>
-      <c r="N33" s="11" t="s">
-        <v>523</v>
       </c>
       <c r="O33" s="11"/>
       <c r="P33" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="Q33" s="11"/>
       <c r="R33" s="1" t="s">
@@ -13473,47 +13473,47 @@
         <v>5</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="D35" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="E35" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="F35" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="G35" s="11" t="s">
         <v>529</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="H35" s="11" t="s">
         <v>530</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="I35" s="11" t="s">
         <v>531</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="J35" s="11" t="s">
         <v>532</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="K35" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="L35" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="L35" s="11" t="s">
+      <c r="M35" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="M35" s="11" t="s">
+      <c r="N35" s="11" t="s">
         <v>536</v>
-      </c>
-      <c r="N35" s="11" t="s">
-        <v>537</v>
       </c>
       <c r="O35" s="11"/>
       <c r="P35" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Q35" s="11"/>
       <c r="R35" s="1" t="s">
@@ -13614,60 +13614,60 @@
     </row>
     <row r="53" spans="5:21">
       <c r="E53" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F53" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="G53" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="G53" s="21" t="s">
+      <c r="H53" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="H53" s="21" t="s">
+      <c r="I53" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="I53" s="21" t="s">
+      <c r="J53" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="J53" s="21" t="s">
+      <c r="K53" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="K53" s="21" t="s">
+      <c r="L53" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="L53" s="21" t="s">
+      <c r="M53" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="M53" s="21" t="s">
+      <c r="N53" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="N53" s="21" t="s">
+      <c r="O53" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="O53" s="21" t="s">
+      <c r="P53" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="P53" s="21" t="s">
+      <c r="Q53" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="Q53" s="21" t="s">
+      <c r="R53" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="R53" s="21" t="s">
+      <c r="S53" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="S53" s="21" t="s">
+      <c r="T53" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="T53" s="21" t="s">
+      <c r="U53" s="21" t="s">
         <v>311</v>
-      </c>
-      <c r="U53" s="21" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="54" spans="5:21">
       <c r="E54" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
@@ -13688,760 +13688,760 @@
     </row>
     <row r="55" spans="5:21">
       <c r="E55" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F55" t="s">
+        <v>312</v>
+      </c>
+      <c r="G55" t="s">
         <v>313</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>314</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>315</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>316</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>317</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>318</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>319</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>320</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>321</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>322</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
         <v>323</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="R55" t="s">
         <v>324</v>
       </c>
-      <c r="R55" t="s">
+      <c r="T55" s="10" t="s">
         <v>325</v>
-      </c>
-      <c r="T55" s="10" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="56" spans="5:21">
       <c r="E56" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F56" t="s">
+        <v>326</v>
+      </c>
+      <c r="G56" t="s">
         <v>327</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>328</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>329</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>330</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>331</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>332</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>333</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>334</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>335</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>336</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
         <v>337</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="R56" t="s">
         <v>338</v>
       </c>
-      <c r="R56" t="s">
+      <c r="T56" s="10" t="s">
         <v>339</v>
-      </c>
-      <c r="T56" s="10" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="57" spans="5:21">
       <c r="E57" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F57" t="s">
+        <v>340</v>
+      </c>
+      <c r="G57" t="s">
         <v>341</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>342</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>343</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>344</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>345</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>346</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>347</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>348</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>349</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>350</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>351</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="R57" t="s">
         <v>352</v>
       </c>
-      <c r="R57" t="s">
+      <c r="T57" s="10" t="s">
         <v>353</v>
-      </c>
-      <c r="T57" s="10" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="58" spans="5:21">
       <c r="E58" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F58" t="s">
+        <v>354</v>
+      </c>
+      <c r="G58" t="s">
         <v>355</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>356</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>357</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>358</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>359</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>360</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>361</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>362</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>363</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>364</v>
       </c>
-      <c r="P58" t="s">
+      <c r="Q58" t="s">
         <v>365</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="R58" t="s">
         <v>366</v>
       </c>
-      <c r="R58" t="s">
+      <c r="T58" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="T58" s="10" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="59" spans="5:21">
       <c r="E59" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F59" t="s">
+        <v>368</v>
+      </c>
+      <c r="G59" t="s">
         <v>369</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>370</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>371</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>372</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>373</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>374</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>375</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59" t="s">
         <v>376</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>377</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>378</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>379</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="R59" t="s">
         <v>380</v>
       </c>
-      <c r="R59" t="s">
+      <c r="T59" s="10" t="s">
         <v>381</v>
-      </c>
-      <c r="T59" s="10" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="60" spans="5:21">
       <c r="E60" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F60" t="s">
+        <v>382</v>
+      </c>
+      <c r="G60" t="s">
         <v>383</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>384</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>385</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>386</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>387</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>388</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>389</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>390</v>
       </c>
-      <c r="N60" t="s">
+      <c r="O60" t="s">
         <v>391</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>392</v>
       </c>
-      <c r="P60" t="s">
+      <c r="Q60" t="s">
         <v>393</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="R60" t="s">
         <v>394</v>
       </c>
-      <c r="R60" t="s">
+      <c r="T60" s="10" t="s">
         <v>395</v>
-      </c>
-      <c r="T60" s="10" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="61" spans="5:21">
       <c r="E61" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F61" t="s">
+        <v>396</v>
+      </c>
+      <c r="G61" t="s">
         <v>397</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>398</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>399</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>400</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>401</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>402</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>403</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>404</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>405</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>406</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>407</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="R61" t="s">
         <v>408</v>
       </c>
-      <c r="R61" t="s">
+      <c r="S61" t="s">
         <v>409</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" s="10" t="s">
         <v>410</v>
-      </c>
-      <c r="T61" s="10" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="62" spans="5:21">
       <c r="E62" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F62" t="s">
+        <v>411</v>
+      </c>
+      <c r="G62" t="s">
         <v>412</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>413</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>414</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>415</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>416</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>417</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>418</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>419</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>420</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>421</v>
       </c>
-      <c r="P62" t="s">
+      <c r="Q62" t="s">
         <v>422</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="R62" t="s">
         <v>423</v>
       </c>
-      <c r="R62" t="s">
+      <c r="T62" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="T62" s="10" t="s">
+      <c r="U62" t="s">
         <v>425</v>
-      </c>
-      <c r="U62" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="63" spans="5:21">
       <c r="E63" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F63" t="s">
+        <v>426</v>
+      </c>
+      <c r="G63" t="s">
         <v>427</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>428</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>429</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>430</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>431</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>432</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>433</v>
       </c>
-      <c r="M63" t="s">
+      <c r="N63" t="s">
         <v>434</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>435</v>
       </c>
-      <c r="O63" t="s">
+      <c r="P63" t="s">
         <v>436</v>
       </c>
-      <c r="P63" t="s">
+      <c r="Q63" t="s">
         <v>437</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="R63" t="s">
         <v>438</v>
       </c>
-      <c r="R63" t="s">
+      <c r="T63" s="10" t="s">
         <v>439</v>
-      </c>
-      <c r="T63" s="10" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="64" spans="5:21">
       <c r="E64" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F64" t="s">
+        <v>440</v>
+      </c>
+      <c r="G64" t="s">
         <v>441</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>442</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>443</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>444</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>445</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>446</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>447</v>
       </c>
-      <c r="M64" t="s">
+      <c r="N64" t="s">
         <v>448</v>
       </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>449</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>450</v>
       </c>
-      <c r="P64" t="s">
+      <c r="Q64" t="s">
         <v>451</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="R64" t="s">
         <v>452</v>
       </c>
-      <c r="R64" t="s">
+      <c r="T64" s="10" t="s">
         <v>453</v>
-      </c>
-      <c r="T64" s="10" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="65" spans="5:20">
       <c r="E65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F65" t="s">
+        <v>454</v>
+      </c>
+      <c r="G65" t="s">
         <v>455</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>456</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>457</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>458</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>459</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>460</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>461</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>462</v>
       </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>463</v>
       </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
         <v>464</v>
       </c>
-      <c r="P65" t="s">
+      <c r="Q65" t="s">
         <v>465</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="R65" t="s">
         <v>466</v>
       </c>
-      <c r="R65" t="s">
+      <c r="T65" s="10" t="s">
         <v>467</v>
-      </c>
-      <c r="T65" s="10" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="66" spans="5:20">
       <c r="E66" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F66" t="s">
+        <v>468</v>
+      </c>
+      <c r="G66" t="s">
         <v>469</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>470</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>471</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>472</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>473</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>474</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>475</v>
       </c>
-      <c r="M66" t="s">
+      <c r="N66" t="s">
         <v>476</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>477</v>
       </c>
-      <c r="O66" t="s">
+      <c r="P66" t="s">
         <v>478</v>
       </c>
-      <c r="P66" t="s">
+      <c r="Q66" t="s">
         <v>479</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="R66" t="s">
         <v>480</v>
       </c>
-      <c r="R66" t="s">
+      <c r="T66" s="10" t="s">
         <v>481</v>
-      </c>
-      <c r="T66" s="10" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="67" spans="5:20">
       <c r="E67" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F67" t="s">
+        <v>482</v>
+      </c>
+      <c r="G67" t="s">
         <v>483</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>484</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>485</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>486</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>487</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>488</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>489</v>
       </c>
-      <c r="M67" t="s">
+      <c r="N67" t="s">
         <v>490</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>491</v>
       </c>
-      <c r="O67" t="s">
+      <c r="P67" t="s">
         <v>492</v>
       </c>
-      <c r="P67" t="s">
+      <c r="Q67" t="s">
         <v>493</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="R67" t="s">
         <v>494</v>
       </c>
-      <c r="R67" t="s">
+      <c r="T67" s="10" t="s">
         <v>495</v>
-      </c>
-      <c r="T67" s="10" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="68" spans="5:20">
       <c r="E68" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F68" t="s">
+        <v>496</v>
+      </c>
+      <c r="G68" t="s">
         <v>497</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>498</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>499</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>500</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>501</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>502</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>503</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>504</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
         <v>505</v>
       </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>506</v>
       </c>
-      <c r="P68" t="s">
+      <c r="Q68" t="s">
         <v>507</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="R68" t="s">
         <v>508</v>
       </c>
-      <c r="R68" t="s">
+      <c r="T68" s="10" t="s">
         <v>509</v>
-      </c>
-      <c r="T68" s="10" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="69" spans="5:20">
       <c r="E69" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F69" t="s">
+        <v>510</v>
+      </c>
+      <c r="G69" t="s">
         <v>511</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>512</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>513</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>514</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>515</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>516</v>
       </c>
-      <c r="L69" t="s">
+      <c r="M69" t="s">
         <v>517</v>
       </c>
-      <c r="M69" t="s">
+      <c r="N69" t="s">
         <v>518</v>
       </c>
-      <c r="N69" t="s">
+      <c r="O69" t="s">
         <v>519</v>
       </c>
-      <c r="O69" t="s">
+      <c r="P69" t="s">
         <v>520</v>
       </c>
-      <c r="P69" t="s">
+      <c r="Q69" t="s">
         <v>521</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="R69" t="s">
         <v>522</v>
       </c>
-      <c r="R69" t="s">
+      <c r="T69" s="10" t="s">
         <v>523</v>
-      </c>
-      <c r="T69" s="10" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="70" spans="5:20">
       <c r="E70" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F70" t="s">
+        <v>524</v>
+      </c>
+      <c r="G70" t="s">
         <v>525</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>526</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>527</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>528</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>529</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>530</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>531</v>
       </c>
-      <c r="M70" t="s">
+      <c r="N70" t="s">
         <v>532</v>
       </c>
-      <c r="N70" t="s">
+      <c r="O70" t="s">
         <v>533</v>
       </c>
-      <c r="O70" t="s">
+      <c r="P70" t="s">
         <v>534</v>
       </c>
-      <c r="P70" t="s">
+      <c r="Q70" t="s">
         <v>535</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="R70" t="s">
         <v>536</v>
       </c>
-      <c r="R70" t="s">
+      <c r="T70" s="10" t="s">
         <v>537</v>
-      </c>
-      <c r="T70" s="10" t="s">
-        <v>538</v>
       </c>
     </row>
   </sheetData>
